--- a/开发文档检查工具/doc_template/(编号)-FPA-(名称)-FPA工作量评估.xlsx
+++ b/开发文档检查工具/doc_template/(编号)-FPA-(名称)-FPA工作量评估.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新大陆\工具\开发文档检查工具\doc_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FA9F7359-B38D-45D6-90F3-A9F8F1E07E26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D2BAC85-A04F-47A5-A4D6-040B00E907A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="360" windowWidth="12503" windowHeight="9435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="360" windowWidth="12504" windowHeight="9432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="4" r:id="rId1"/>
@@ -2067,15 +2067,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.8125" style="40"/>
-    <col min="2" max="2" width="8.8125" style="23"/>
-    <col min="3" max="3" width="22.625" style="23" customWidth="1"/>
-    <col min="4" max="11" width="8.8125" style="23"/>
+    <col min="1" max="1" width="8.796875" style="40"/>
+    <col min="2" max="2" width="8.796875" style="23"/>
+    <col min="3" max="3" width="22.59765625" style="23" customWidth="1"/>
+    <col min="4" max="11" width="8.796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.649999999999999">
+    <row r="1" spans="1:11" ht="17.399999999999999">
       <c r="A1" s="41" t="s">
         <v>75</v>
       </c>
@@ -2086,10 +2086,10 @@
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
     </row>
-    <row r="2" spans="1:11" ht="17.649999999999999">
+    <row r="2" spans="1:11" ht="17.399999999999999">
       <c r="A2" s="24"/>
     </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" ht="26.25">
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="28.8">
       <c r="A3" s="25" t="s">
         <v>76</v>
       </c>
@@ -2231,27 +2231,27 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.3125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.8984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.296875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5">
+    <row r="1" spans="1:12" ht="12.6">
       <c r="A1" s="42" t="s">
         <v>74</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="K1" s="42"/>
       <c r="L1" s="42"/>
     </row>
-    <row r="2" spans="1:12" ht="33.75">
+    <row r="2" spans="1:12" ht="32.4">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>72</v>
       </c>
       <c r="H3" s="16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -2376,14 +2376,14 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="108.625" style="7" customWidth="1"/>
-    <col min="2" max="16384" width="8.8125" style="7"/>
+    <col min="1" max="1" width="108.59765625" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2447,7 +2447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.5">
+    <row r="7" spans="1:3" ht="13.2">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.5">
+    <row r="9" spans="1:3" ht="13.2">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.5">
+    <row r="10" spans="1:3" ht="13.2">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.5">
+    <row r="12" spans="1:3" ht="13.2">
       <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5">
+    <row r="13" spans="1:3" ht="13.2">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.15">
+    <row r="14" spans="1:3" ht="13.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.15">
+    <row r="15" spans="1:3" ht="13.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -2548,32 +2548,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="13.5">
+    <row r="18" spans="1:1" ht="13.2">
       <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="13.5">
+    <row r="19" spans="1:1" ht="13.2">
       <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="13.15">
+    <row r="20" spans="1:1" ht="13.2">
       <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13.15">
+    <row r="21" spans="1:1" ht="13.2">
       <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="13.15">
+    <row r="22" spans="1:1" ht="13.2">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="13.15">
+    <row r="23" spans="1:1" ht="13.2">
       <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
@@ -2583,12 +2583,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="13.5">
+    <row r="25" spans="1:1" ht="13.2">
       <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="13.15">
+    <row r="26" spans="1:1" ht="13.2">
       <c r="A26" s="12" t="s">
         <v>34</v>
       </c>
@@ -2596,42 +2596,42 @@
     <row r="27" spans="1:1">
       <c r="A27" s="12"/>
     </row>
-    <row r="28" spans="1:1" ht="13.5">
+    <row r="28" spans="1:1" ht="13.2">
       <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="13.5">
+    <row r="29" spans="1:1" ht="13.2">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="13.5">
+    <row r="30" spans="1:1" ht="13.2">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="13.5">
+    <row r="31" spans="1:1" ht="13.2">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="13.15">
+    <row r="32" spans="1:1" ht="13.2">
       <c r="A32" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="13.15">
+    <row r="33" spans="1:1" ht="13.2">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="13.15">
+    <row r="34" spans="1:1" ht="13.2">
       <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="13.15">
+    <row r="35" spans="1:1" ht="13.2">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -2641,22 +2641,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="13.15">
+    <row r="37" spans="1:1" ht="13.2">
       <c r="A37" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="13.15">
+    <row r="38" spans="1:1" ht="13.2">
       <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="13.15">
+    <row r="39" spans="1:1" ht="13.2">
       <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="13.15">
+    <row r="40" spans="1:1" ht="13.2">
       <c r="A40" s="12" t="s">
         <v>42</v>
       </c>
@@ -2679,12 +2679,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="13.15">
+    <row r="45" spans="1:1" ht="13.2">
       <c r="A45" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="13.15">
+    <row r="46" spans="1:1" ht="13.2">
       <c r="A46" s="12" t="s">
         <v>44</v>
       </c>
@@ -2697,17 +2697,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="13.5">
+    <row r="49" spans="1:1" ht="13.2">
       <c r="A49" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="13.5">
+    <row r="50" spans="1:1" ht="13.2">
       <c r="A50" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="13.5">
+    <row r="51" spans="1:1" ht="13.2">
       <c r="A51" s="11" t="s">
         <v>46</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="13.15" thickBot="1">
+    <row r="53" spans="1:1" ht="12.6" thickBot="1">
       <c r="A53" s="14" t="s">
         <v>49</v>
       </c>
